--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>shit</t>
@@ -64,36 +67,30 @@
     <t>shame</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -103,46 +100,61 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
@@ -154,7 +166,13 @@
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>well</t>
@@ -163,46 +181,61 @@
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>give</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
   <si>
     <t>shopping</t>
@@ -211,22 +244,22 @@
     <t>home</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>store</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
@@ -235,13 +268,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -602,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
@@ -721,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8620689655172413</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -821,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9148936170212766</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8205128205128205</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.9014084507042254</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8157894736842105</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -939,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8780487804878049</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,13 +1022,13 @@
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1071,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6756756756756757</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.859375</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5678294573643411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8431372549019608</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5490196078431373</v>
+        <v>0.6104651162790697</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5436241610738255</v>
+        <v>0.5637583892617449</v>
       </c>
       <c r="C14">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
@@ -1271,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5132275132275133</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
@@ -1321,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4933333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.79375</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L16">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4888888888888889</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7859007832898173</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L17">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4464285714285715</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,13 +1472,13 @@
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.82</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4415584415584415</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.74</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.423728813559322</v>
+        <v>0.3875</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7875</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="M20">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.325</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7186440677966102</v>
+        <v>0.7728459530026109</v>
       </c>
       <c r="L21">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="M21">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,37 +1648,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3134920634920635</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.6976744186046512</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,37 +1698,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1689008042895442</v>
+        <v>0.009106239460370995</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>310</v>
+        <v>2938</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.6617647058823529</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1748,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.6461538461538462</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,13 +1774,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.6458333333333334</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1765,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1800,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6443514644351465</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L26">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="M26">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1791,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1799,13 +1826,13 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.6301369863013698</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1817,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1825,13 +1852,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6292134831460674</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1843,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1851,13 +1878,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.578125</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1869,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1877,13 +1904,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5769230769230769</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1895,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1903,13 +1930,13 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1921,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1929,7 +1956,7 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.423728813559322</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
         <v>25</v>
@@ -1947,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1955,25 +1982,25 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.3023255813953488</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1981,13 +2008,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.2248803827751196</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L34">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1999,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>324</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2007,13 +2034,13 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.2047244094488189</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2025,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2033,13 +2060,13 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.2019230769230769</v>
+        <v>0.5625</v>
       </c>
       <c r="L36">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2051,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>332</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2059,13 +2086,13 @@
         <v>64</v>
       </c>
       <c r="K37">
-        <v>0.1627906976744186</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2077,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>180</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2085,25 +2112,25 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.1582278481012658</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L38">
         <v>25</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2111,13 +2138,13 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>0.1395348837209302</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2129,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>185</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2137,13 +2164,13 @@
         <v>67</v>
       </c>
       <c r="K40">
-        <v>0.1253822629969419</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2155,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>286</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2163,25 +2190,25 @@
         <v>68</v>
       </c>
       <c r="K41">
-        <v>0.1052631578947368</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>238</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2189,13 +2216,13 @@
         <v>69</v>
       </c>
       <c r="K42">
-        <v>0.09766925638179801</v>
+        <v>0.2559808612440191</v>
       </c>
       <c r="L42">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="M42">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2207,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>813</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2215,25 +2242,25 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>0.09060402684563758</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="L43">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>813</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2241,25 +2268,25 @@
         <v>71</v>
       </c>
       <c r="K44">
-        <v>0.07550077041602465</v>
+        <v>0.2</v>
       </c>
       <c r="L44">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>600</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2267,13 +2294,13 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>0.07501172058134084</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="L45">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>0.9399999999999999</v>
@@ -2285,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1973</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2293,13 +2320,13 @@
         <v>73</v>
       </c>
       <c r="K46">
-        <v>0.06689734717416378</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L46">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2311,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>809</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2319,13 +2346,13 @@
         <v>74</v>
       </c>
       <c r="K47">
-        <v>0.05761316872427984</v>
+        <v>0.1610576923076923</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2337,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>458</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2345,25 +2372,25 @@
         <v>75</v>
       </c>
       <c r="K48">
-        <v>0.0203751617076326</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="L48">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3029</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2371,25 +2398,285 @@
         <v>76</v>
       </c>
       <c r="K49">
-        <v>0.01128880526810913</v>
+        <v>0.1410974244120941</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="N49">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3153</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50">
+        <v>0.1376146788990826</v>
+      </c>
+      <c r="L50">
+        <v>45</v>
+      </c>
+      <c r="M50">
+        <v>45</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51">
+        <v>0.1188888888888889</v>
+      </c>
+      <c r="L51">
+        <v>107</v>
+      </c>
+      <c r="M51">
+        <v>108</v>
+      </c>
+      <c r="N51">
+        <v>0.99</v>
+      </c>
+      <c r="O51">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52">
+        <v>0.1049382716049383</v>
+      </c>
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>51</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <v>0.1015037593984962</v>
+      </c>
+      <c r="L53">
+        <v>27</v>
+      </c>
+      <c r="M53">
+        <v>28</v>
+      </c>
+      <c r="N53">
+        <v>0.96</v>
+      </c>
+      <c r="O53">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <v>0.09837962962962964</v>
+      </c>
+      <c r="L54">
+        <v>85</v>
+      </c>
+      <c r="M54">
+        <v>88</v>
+      </c>
+      <c r="N54">
+        <v>0.97</v>
+      </c>
+      <c r="O54">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55">
+        <v>0.09104938271604938</v>
+      </c>
+      <c r="L55">
+        <v>59</v>
+      </c>
+      <c r="M55">
+        <v>61</v>
+      </c>
+      <c r="N55">
+        <v>0.97</v>
+      </c>
+      <c r="O55">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56">
+        <v>0.08407703147017379</v>
+      </c>
+      <c r="L56">
+        <v>179</v>
+      </c>
+      <c r="M56">
+        <v>193</v>
+      </c>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57">
+        <v>0.04610389610389611</v>
+      </c>
+      <c r="L57">
+        <v>142</v>
+      </c>
+      <c r="M57">
+        <v>169</v>
+      </c>
+      <c r="N57">
+        <v>0.84</v>
+      </c>
+      <c r="O57">
+        <v>0.16</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58">
+        <v>0.03215767634854771</v>
+      </c>
+      <c r="L58">
+        <v>31</v>
+      </c>
+      <c r="M58">
+        <v>35</v>
+      </c>
+      <c r="N58">
+        <v>0.89</v>
+      </c>
+      <c r="O58">
+        <v>0.11</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="L59">
+        <v>86</v>
+      </c>
+      <c r="M59">
+        <v>105</v>
+      </c>
+      <c r="N59">
+        <v>0.82</v>
+      </c>
+      <c r="O59">
+        <v>0.18</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3096</v>
       </c>
     </row>
   </sheetData>
